--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -593,10 +605,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -640,28 +652,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -686,28 +698,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -795,10 +807,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -842,28 +854,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -888,28 +900,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -968,10 +980,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1015,28 +1027,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1061,28 +1073,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1141,10 +1153,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1188,28 +1200,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1234,28 +1246,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1314,10 +1326,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1361,28 +1373,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1407,28 +1419,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1487,10 +1499,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1534,28 +1546,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1580,28 +1592,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1660,10 +1672,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1707,28 +1719,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1753,28 +1765,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1833,10 +1845,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="2" t="s">
+      <c r="J59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1880,28 +1892,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="2">
+      <c r="A61" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="2">
+      <c r="C61" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1926,28 +1938,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="2">
+      <c r="C63" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="2">
+      <c r="D63" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="2">
+      <c r="I63" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2267,10 +2279,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2314,28 +2326,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2360,28 +2372,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2440,10 +2452,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2487,28 +2499,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2533,28 +2545,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2816,10 +2828,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2863,28 +2875,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2909,28 +2921,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2989,10 +3001,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3036,28 +3048,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3082,28 +3094,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3191,10 +3203,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3238,28 +3250,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3284,28 +3296,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3364,10 +3376,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3411,28 +3423,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3457,28 +3469,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3827,10 +3839,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="2" t="s">
+      <c r="J128" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3874,28 +3886,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="2">
+      <c r="A130" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="2">
+      <c r="C130" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3920,28 +3932,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="2">
+      <c r="C132" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="2">
+      <c r="D132" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="2">
+      <c r="I132" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4000,10 +4012,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="2" t="s">
+      <c r="J134" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4047,28 +4059,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="2">
+      <c r="A136" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="2">
+      <c r="C136" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4093,28 +4105,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="2">
+      <c r="B138" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="2">
+      <c r="C138" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="2">
+      <c r="D138" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="2">
+      <c r="E138" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="2">
+      <c r="F138" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="2">
+      <c r="G138" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="2">
+      <c r="H138" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="2">
+      <c r="I138" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4173,10 +4185,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4220,28 +4232,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4266,28 +4278,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4375,10 +4387,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="2" t="s">
+      <c r="J147" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4422,28 +4434,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="2">
+      <c r="A149" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="2">
+      <c r="C149" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4468,28 +4480,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="2">
+      <c r="C151" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="2">
+      <c r="D151" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="2">
+      <c r="I151" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4838,10 +4850,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4885,28 +4897,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4931,28 +4943,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5011,10 +5023,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5058,28 +5070,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5104,28 +5116,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5184,10 +5196,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5231,28 +5243,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5277,28 +5289,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5357,10 +5369,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5404,28 +5416,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5450,28 +5462,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5530,10 +5542,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5577,28 +5589,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5623,28 +5635,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6022,10 +6034,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="2" t="s">
+      <c r="J204" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6069,28 +6081,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="2">
+      <c r="A206" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="2">
+      <c r="C206" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6115,28 +6127,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="2">
+      <c r="C208" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="2">
+      <c r="D208" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="2">
+      <c r="I208" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6195,10 +6207,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6242,28 +6254,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6288,28 +6300,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6368,10 +6380,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6415,28 +6427,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6461,28 +6473,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6541,10 +6553,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6588,28 +6600,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6634,28 +6646,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6975,10 +6987,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7022,28 +7034,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7068,28 +7080,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7148,10 +7160,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7195,28 +7207,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7241,28 +7253,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7321,10 +7333,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="2" t="s">
+      <c r="J249" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7368,28 +7380,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="2">
+      <c r="A251" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="2">
+      <c r="C251" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7414,28 +7426,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="2">
+      <c r="C253" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="2">
+      <c r="D253" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="2">
+      <c r="I253" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7494,10 +7506,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7541,28 +7553,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7587,28 +7599,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7667,10 +7679,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7104" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -605,10 +653,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="J16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -652,28 +700,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="4">
+      <c r="A18" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="4">
+      <c r="B18" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="4">
+      <c r="C18" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="4">
+      <c r="E18" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="4">
+      <c r="F18" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="4">
+      <c r="G18" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="4">
+      <c r="H18" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -698,28 +746,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="4">
+      <c r="D20" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="4">
+      <c r="G20" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="4">
+      <c r="H20" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="4">
+      <c r="I20" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -807,10 +855,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="J23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -854,28 +902,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="4">
+      <c r="A25" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="4">
+      <c r="B25" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="4">
+      <c r="C25" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="4">
+      <c r="E25" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="4">
+      <c r="F25" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="4">
+      <c r="G25" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="4">
+      <c r="H25" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -900,28 +948,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="4">
+      <c r="B27" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="4">
+      <c r="C27" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="4">
+      <c r="D27" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="4">
+      <c r="E27" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="4">
+      <c r="F27" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="4">
+      <c r="G27" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="4">
+      <c r="H27" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="4">
+      <c r="I27" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -980,10 +1028,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="4" t="s">
+      <c r="J29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1027,28 +1075,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="4">
+      <c r="A31" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="4">
+      <c r="B31" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="4">
+      <c r="C31" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="4">
+      <c r="E31" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="4">
+      <c r="F31" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="4">
+      <c r="G31" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="4">
+      <c r="H31" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1073,28 +1121,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="4">
+      <c r="B33" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="4">
+      <c r="C33" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="4">
+      <c r="D33" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="4">
+      <c r="E33" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="4">
+      <c r="F33" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="4">
+      <c r="G33" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="4">
+      <c r="H33" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="4">
+      <c r="I33" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1153,10 +1201,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="4" t="s">
+      <c r="J35" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1200,28 +1248,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="4">
+      <c r="A37" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="4">
+      <c r="B37" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="4">
+      <c r="C37" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="4">
+      <c r="E37" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="4">
+      <c r="F37" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="4">
+      <c r="G37" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="4">
+      <c r="H37" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1246,28 +1294,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="4">
+      <c r="B39" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="4">
+      <c r="C39" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="4">
+      <c r="D39" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="4">
+      <c r="E39" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="4">
+      <c r="F39" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="4">
+      <c r="G39" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="4">
+      <c r="H39" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="4">
+      <c r="I39" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1326,10 +1374,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="4" t="s">
+      <c r="J41" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1373,28 +1421,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="4">
+      <c r="A43" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="4">
+      <c r="B43" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="4">
+      <c r="C43" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="4">
+      <c r="E43" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="4">
+      <c r="F43" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="4">
+      <c r="G43" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="4">
+      <c r="H43" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1419,28 +1467,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="4">
+      <c r="B45" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="4">
+      <c r="C45" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="4">
+      <c r="D45" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="4">
+      <c r="E45" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="4">
+      <c r="F45" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="4">
+      <c r="G45" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="4">
+      <c r="H45" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="4">
+      <c r="I45" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1499,10 +1547,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="4" t="s">
+      <c r="J47" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1546,28 +1594,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="4">
+      <c r="A49" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="4">
+      <c r="B49" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="4">
+      <c r="C49" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="4">
+      <c r="E49" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="4">
+      <c r="F49" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="4">
+      <c r="G49" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="4">
+      <c r="H49" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1592,28 +1640,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="4">
+      <c r="B51" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="4">
+      <c r="C51" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="4">
+      <c r="D51" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="4">
+      <c r="E51" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="4">
+      <c r="F51" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="4">
+      <c r="G51" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="4">
+      <c r="H51" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="4">
+      <c r="I51" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1672,10 +1720,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="4" t="s">
+      <c r="J53" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1719,28 +1767,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="4">
+      <c r="A55" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="4">
+      <c r="B55" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="4">
+      <c r="C55" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="4">
+      <c r="E55" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="4">
+      <c r="F55" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="4">
+      <c r="G55" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="4">
+      <c r="H55" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1765,28 +1813,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="4">
+      <c r="B57" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="4">
+      <c r="C57" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="4">
+      <c r="D57" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="4">
+      <c r="E57" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="4">
+      <c r="F57" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="4">
+      <c r="G57" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="4">
+      <c r="H57" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="4">
+      <c r="I57" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1845,10 +1893,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="4" t="s">
+      <c r="J59" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1892,28 +1940,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="4">
+      <c r="A61" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="4">
+      <c r="C61" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1938,28 +1986,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="4">
+      <c r="B63" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="4">
+      <c r="C63" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="4">
+      <c r="D63" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="4">
+      <c r="E63" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="4">
+      <c r="F63" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="4">
+      <c r="G63" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="4">
+      <c r="H63" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="4">
+      <c r="I63" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2279,10 +2327,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="4" t="s">
+      <c r="J74" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2326,28 +2374,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="4">
+      <c r="A76" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="4">
+      <c r="B76" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="4">
+      <c r="C76" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="4">
+      <c r="E76" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="4">
+      <c r="F76" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="4">
+      <c r="G76" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="4">
+      <c r="H76" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2372,28 +2420,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="4">
+      <c r="B78" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="4">
+      <c r="C78" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="4">
+      <c r="D78" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="4">
+      <c r="E78" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="4">
+      <c r="F78" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="4">
+      <c r="G78" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="4">
+      <c r="H78" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="4">
+      <c r="I78" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2452,10 +2500,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="4" t="s">
+      <c r="J80" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2499,28 +2547,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="4">
+      <c r="A82" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="4">
+      <c r="B82" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="4">
+      <c r="C82" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="4">
+      <c r="E82" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="4">
+      <c r="F82" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="4">
+      <c r="G82" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="4">
+      <c r="H82" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2545,28 +2593,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="4">
+      <c r="B84" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="4">
+      <c r="C84" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="4">
+      <c r="D84" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="4">
+      <c r="E84" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="4">
+      <c r="F84" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="4">
+      <c r="G84" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="4">
+      <c r="H84" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="4">
+      <c r="I84" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2828,10 +2876,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="4" t="s">
+      <c r="J93" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2875,28 +2923,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="4">
+      <c r="A95" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="4">
+      <c r="B95" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="4">
+      <c r="C95" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="4">
+      <c r="E95" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="4">
+      <c r="F95" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="4">
+      <c r="G95" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="4">
+      <c r="H95" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2921,28 +2969,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="4">
+      <c r="B97" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="4">
+      <c r="C97" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="4">
+      <c r="D97" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="4">
+      <c r="E97" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="4">
+      <c r="F97" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="4">
+      <c r="G97" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="4">
+      <c r="H97" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="4">
+      <c r="I97" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3001,10 +3049,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="4" t="s">
+      <c r="J99" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3048,28 +3096,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="4">
+      <c r="A101" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="4">
+      <c r="B101" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="4">
+      <c r="C101" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="4">
+      <c r="E101" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="4">
+      <c r="F101" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="4">
+      <c r="G101" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="4">
+      <c r="H101" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3094,28 +3142,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="4">
+      <c r="B103" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="4">
+      <c r="C103" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="4">
+      <c r="D103" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="4">
+      <c r="E103" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="4">
+      <c r="F103" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="4">
+      <c r="G103" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="4">
+      <c r="H103" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="4">
+      <c r="I103" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3203,10 +3251,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="4" t="s">
+      <c r="J106" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3250,28 +3298,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="4">
+      <c r="A108" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="4">
+      <c r="B108" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="4">
+      <c r="C108" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="4">
+      <c r="E108" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="4">
+      <c r="F108" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="4">
+      <c r="G108" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="4">
+      <c r="H108" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3296,28 +3344,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="4">
+      <c r="B110" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="4">
+      <c r="C110" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="4">
+      <c r="D110" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="4">
+      <c r="E110" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="4">
+      <c r="F110" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="4">
+      <c r="G110" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="4">
+      <c r="H110" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="4">
+      <c r="I110" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3376,10 +3424,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="4" t="s">
+      <c r="J112" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3423,28 +3471,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="4">
+      <c r="A114" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="4">
+      <c r="B114" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="4">
+      <c r="C114" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="4">
+      <c r="E114" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="4">
+      <c r="F114" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="4">
+      <c r="G114" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="4">
+      <c r="H114" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3469,28 +3517,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="4">
+      <c r="B116" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="4">
+      <c r="C116" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="4">
+      <c r="D116" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="4">
+      <c r="E116" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="4">
+      <c r="F116" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="4">
+      <c r="G116" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="4">
+      <c r="H116" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="4">
+      <c r="I116" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3839,10 +3887,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="4" t="s">
+      <c r="J128" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3886,28 +3934,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="4">
+      <c r="A130" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="4">
+      <c r="B130" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="4">
+      <c r="C130" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="4">
+      <c r="E130" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="4">
+      <c r="F130" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="4">
+      <c r="G130" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="4">
+      <c r="H130" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3932,28 +3980,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="4">
+      <c r="B132" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="4">
+      <c r="C132" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="4">
+      <c r="D132" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="4">
+      <c r="E132" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="4">
+      <c r="F132" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="4">
+      <c r="G132" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="4">
+      <c r="H132" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="4">
+      <c r="I132" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4012,10 +4060,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="4" t="s">
+      <c r="J134" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4059,28 +4107,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="4">
+      <c r="A136" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="4">
+      <c r="B136" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="4">
+      <c r="C136" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="4">
+      <c r="E136" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="4">
+      <c r="F136" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="4">
+      <c r="G136" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="4">
+      <c r="H136" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4105,28 +4153,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="4">
+      <c r="B138" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="4">
+      <c r="C138" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="4">
+      <c r="D138" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="4">
+      <c r="E138" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="4">
+      <c r="F138" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="4">
+      <c r="G138" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="4">
+      <c r="H138" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="4">
+      <c r="I138" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4185,10 +4233,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="4" t="s">
+      <c r="J140" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4232,28 +4280,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="4">
+      <c r="A142" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="4">
+      <c r="B142" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="4">
+      <c r="C142" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="4">
+      <c r="E142" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="4">
+      <c r="F142" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="4">
+      <c r="G142" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="4">
+      <c r="H142" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4278,28 +4326,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="4">
+      <c r="B144" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="4">
+      <c r="C144" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="4">
+      <c r="D144" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="4">
+      <c r="E144" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="4">
+      <c r="F144" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="4">
+      <c r="G144" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="4">
+      <c r="H144" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="4">
+      <c r="I144" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4387,10 +4435,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="4" t="s">
+      <c r="J147" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4434,28 +4482,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="4">
+      <c r="A149" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="4">
+      <c r="B149" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="4">
+      <c r="C149" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="4">
+      <c r="E149" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="4">
+      <c r="F149" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="4">
+      <c r="G149" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="4">
+      <c r="H149" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4480,28 +4528,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="4">
+      <c r="B151" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="4">
+      <c r="C151" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="4">
+      <c r="D151" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="4">
+      <c r="E151" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="4">
+      <c r="F151" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="4">
+      <c r="G151" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="4">
+      <c r="H151" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="4">
+      <c r="I151" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4850,10 +4898,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="4" t="s">
+      <c r="J163" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4897,28 +4945,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="4">
+      <c r="A165" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="4">
+      <c r="B165" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="4">
+      <c r="C165" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="4">
+      <c r="E165" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="4">
+      <c r="F165" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="4">
+      <c r="G165" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="4">
+      <c r="H165" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4943,28 +4991,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="4">
+      <c r="B167" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="4">
+      <c r="C167" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="4">
+      <c r="D167" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="4">
+      <c r="E167" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="4">
+      <c r="F167" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="4">
+      <c r="G167" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="4">
+      <c r="H167" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="4">
+      <c r="I167" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5023,10 +5071,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="4" t="s">
+      <c r="J169" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5070,28 +5118,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="4">
+      <c r="A171" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="4">
+      <c r="B171" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="4">
+      <c r="C171" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="4">
+      <c r="E171" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="4">
+      <c r="F171" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="4">
+      <c r="G171" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="4">
+      <c r="H171" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5116,28 +5164,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="4">
+      <c r="B173" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="4">
+      <c r="C173" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="4">
+      <c r="D173" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="4">
+      <c r="E173" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="4">
+      <c r="F173" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="4">
+      <c r="G173" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="4">
+      <c r="H173" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="4">
+      <c r="I173" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5196,10 +5244,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="4" t="s">
+      <c r="J175" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5243,28 +5291,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="4">
+      <c r="A177" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="4">
+      <c r="B177" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="4">
+      <c r="C177" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="4">
+      <c r="E177" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="4">
+      <c r="F177" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="4">
+      <c r="G177" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="4">
+      <c r="H177" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5289,28 +5337,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="4">
+      <c r="B179" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="4">
+      <c r="C179" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="4">
+      <c r="D179" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="4">
+      <c r="E179" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="4">
+      <c r="F179" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="4">
+      <c r="G179" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="4">
+      <c r="H179" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="4">
+      <c r="I179" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5369,10 +5417,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="4" t="s">
+      <c r="J181" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5416,28 +5464,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="4">
+      <c r="A183" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="4">
+      <c r="B183" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="4">
+      <c r="C183" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="4">
+      <c r="E183" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="4">
+      <c r="F183" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="4">
+      <c r="G183" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="4">
+      <c r="H183" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5462,28 +5510,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="4">
+      <c r="B185" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="4">
+      <c r="C185" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="4">
+      <c r="D185" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="4">
+      <c r="E185" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="4">
+      <c r="F185" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="4">
+      <c r="G185" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="4">
+      <c r="H185" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="4">
+      <c r="I185" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5542,10 +5590,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="4" t="s">
+      <c r="J187" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5589,28 +5637,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="4">
+      <c r="A189" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="4">
+      <c r="B189" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="4">
+      <c r="C189" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="4">
+      <c r="E189" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="4">
+      <c r="F189" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="4">
+      <c r="G189" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="4">
+      <c r="H189" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5635,28 +5683,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="4">
+      <c r="B191" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="4">
+      <c r="C191" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="4">
+      <c r="D191" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="4">
+      <c r="E191" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="4">
+      <c r="F191" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="4">
+      <c r="G191" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="4">
+      <c r="H191" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="4">
+      <c r="I191" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6034,10 +6082,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="4" t="s">
+      <c r="J204" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6081,28 +6129,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="4">
+      <c r="A206" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="4">
+      <c r="B206" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="4">
+      <c r="C206" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="4">
+      <c r="E206" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="4">
+      <c r="F206" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="4">
+      <c r="G206" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="4">
+      <c r="H206" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6127,28 +6175,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="4">
+      <c r="B208" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="4">
+      <c r="C208" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="4">
+      <c r="D208" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="4">
+      <c r="E208" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="4">
+      <c r="F208" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="4">
+      <c r="G208" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="4">
+      <c r="H208" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="4">
+      <c r="I208" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6207,10 +6255,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="4" t="s">
+      <c r="J210" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6254,28 +6302,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="4">
+      <c r="A212" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="4">
+      <c r="B212" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="4">
+      <c r="C212" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="4">
+      <c r="E212" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="4">
+      <c r="F212" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="4">
+      <c r="G212" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="4">
+      <c r="H212" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6300,28 +6348,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="4">
+      <c r="B214" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="4">
+      <c r="C214" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="4">
+      <c r="D214" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="4">
+      <c r="E214" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="4">
+      <c r="F214" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="4">
+      <c r="G214" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="4">
+      <c r="H214" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="4">
+      <c r="I214" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6380,10 +6428,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="4" t="s">
+      <c r="J216" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6427,28 +6475,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="4">
+      <c r="A218" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="4">
+      <c r="B218" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="4">
+      <c r="C218" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="4">
+      <c r="E218" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="4">
+      <c r="F218" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="4">
+      <c r="G218" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="4">
+      <c r="H218" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6473,28 +6521,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="4">
+      <c r="B220" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="4">
+      <c r="C220" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="4">
+      <c r="D220" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="4">
+      <c r="E220" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="4">
+      <c r="F220" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="4">
+      <c r="G220" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="4">
+      <c r="H220" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="4">
+      <c r="I220" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6553,10 +6601,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="4" t="s">
+      <c r="J222" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6600,28 +6648,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="4">
+      <c r="A224" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="4">
+      <c r="B224" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="4">
+      <c r="C224" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="4">
+      <c r="E224" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="4">
+      <c r="F224" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="4">
+      <c r="G224" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="4">
+      <c r="H224" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6646,28 +6694,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="4">
+      <c r="B226" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="4">
+      <c r="C226" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="4">
+      <c r="D226" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="4">
+      <c r="E226" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="4">
+      <c r="F226" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="4">
+      <c r="G226" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="4">
+      <c r="H226" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="4">
+      <c r="I226" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6987,10 +7035,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="4" t="s">
+      <c r="J237" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7034,28 +7082,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="4">
+      <c r="A239" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="4">
+      <c r="B239" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="4">
+      <c r="C239" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="4">
+      <c r="E239" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="4">
+      <c r="F239" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="4">
+      <c r="G239" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="4">
+      <c r="H239" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7080,28 +7128,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="4">
+      <c r="B241" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="4">
+      <c r="C241" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="4">
+      <c r="D241" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="4">
+      <c r="E241" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="4">
+      <c r="F241" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="4">
+      <c r="G241" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="4">
+      <c r="H241" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="4">
+      <c r="I241" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7160,10 +7208,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="4" t="s">
+      <c r="J243" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7207,28 +7255,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="4">
+      <c r="A245" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="4">
+      <c r="B245" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="4">
+      <c r="C245" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="4">
+      <c r="E245" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="4">
+      <c r="F245" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="4">
+      <c r="G245" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="4">
+      <c r="H245" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7253,28 +7301,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="4">
+      <c r="B247" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="4">
+      <c r="C247" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="4">
+      <c r="D247" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="4">
+      <c r="E247" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="4">
+      <c r="F247" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="4">
+      <c r="G247" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="4">
+      <c r="H247" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="4">
+      <c r="I247" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7333,10 +7381,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="4" t="s">
+      <c r="J249" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7380,28 +7428,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="4">
+      <c r="A251" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="4">
+      <c r="B251" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="4">
+      <c r="C251" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="4">
+      <c r="E251" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="4">
+      <c r="F251" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="4">
+      <c r="G251" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="4">
+      <c r="H251" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7426,28 +7474,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="4">
+      <c r="B253" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="4">
+      <c r="C253" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="4">
+      <c r="D253" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="4">
+      <c r="E253" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="4">
+      <c r="F253" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="4">
+      <c r="G253" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="4">
+      <c r="H253" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="4">
+      <c r="I253" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7506,10 +7554,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="4" t="s">
+      <c r="J255" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7553,28 +7601,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="4">
+      <c r="A257" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="4">
+      <c r="B257" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="4">
+      <c r="C257" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="4">
+      <c r="E257" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="4">
+      <c r="F257" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="4">
+      <c r="G257" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="4">
+      <c r="H257" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7599,28 +7647,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="4">
+      <c r="B259" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="4">
+      <c r="C259" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="4">
+      <c r="D259" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="4">
+      <c r="E259" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="4">
+      <c r="F259" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="4">
+      <c r="G259" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="4">
+      <c r="H259" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="4">
+      <c r="I259" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7679,10 +7727,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="4" t="s">
+      <c r="J261" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c104_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7104" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8880" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -653,10 +671,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="12" t="s">
+      <c r="J16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -700,28 +718,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="12">
+      <c r="A18" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="12">
+      <c r="B18" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="12">
+      <c r="C18" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E18" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="12">
+      <c r="F18" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -746,28 +764,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F20" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="12">
+      <c r="G20" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="12">
+      <c r="H20" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="12">
+      <c r="I20" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -855,10 +873,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="12" t="s">
+      <c r="J23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -902,28 +920,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="12">
+      <c r="A25" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="12">
+      <c r="B25" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="12">
+      <c r="C25" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="12">
+      <c r="E25" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="12">
+      <c r="F25" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="12">
+      <c r="G25" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="12">
+      <c r="H25" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -948,28 +966,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="12">
+      <c r="B27" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="12">
+      <c r="C27" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="12">
+      <c r="D27" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="12">
+      <c r="E27" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="12">
+      <c r="F27" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="12">
+      <c r="G27" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="12">
+      <c r="H27" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="12">
+      <c r="I27" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1028,10 +1046,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="12" t="s">
+      <c r="J29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1075,28 +1093,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="12">
+      <c r="A31" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="12">
+      <c r="B31" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="12">
+      <c r="C31" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="12">
+      <c r="E31" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="12">
+      <c r="F31" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="12">
+      <c r="G31" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="12">
+      <c r="H31" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1121,28 +1139,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="12">
+      <c r="B33" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="12">
+      <c r="C33" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="12">
+      <c r="D33" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="12">
+      <c r="E33" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="12">
+      <c r="F33" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="12">
+      <c r="G33" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="12">
+      <c r="H33" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="12">
+      <c r="I33" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1201,10 +1219,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="12" t="s">
+      <c r="J35" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1248,28 +1266,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="12">
+      <c r="A37" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="12">
+      <c r="B37" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="12">
+      <c r="C37" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="12">
+      <c r="E37" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="12">
+      <c r="F37" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="12">
+      <c r="G37" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="12">
+      <c r="H37" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1294,28 +1312,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="12">
+      <c r="B39" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="12">
+      <c r="C39" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="12">
+      <c r="D39" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="12">
+      <c r="E39" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="12">
+      <c r="F39" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="12">
+      <c r="G39" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="12">
+      <c r="H39" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="12">
+      <c r="I39" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1374,10 +1392,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="12" t="s">
+      <c r="J41" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1421,28 +1439,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="12">
+      <c r="A43" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="12">
+      <c r="B43" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="12">
+      <c r="C43" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="12">
+      <c r="E43" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="12">
+      <c r="F43" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="12">
+      <c r="G43" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="12">
+      <c r="H43" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1467,28 +1485,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="12">
+      <c r="B45" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="12">
+      <c r="C45" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="12">
+      <c r="D45" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="12">
+      <c r="E45" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="12">
+      <c r="F45" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="12">
+      <c r="G45" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="12">
+      <c r="H45" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="12">
+      <c r="I45" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1547,10 +1565,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="12" t="s">
+      <c r="J47" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1594,28 +1612,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="12">
+      <c r="A49" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="12">
+      <c r="B49" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="12">
+      <c r="C49" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="12">
+      <c r="E49" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="12">
+      <c r="F49" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="12">
+      <c r="G49" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="12">
+      <c r="H49" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1640,28 +1658,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="12">
+      <c r="B51" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="12">
+      <c r="C51" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="12">
+      <c r="D51" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="12">
+      <c r="E51" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="12">
+      <c r="F51" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="12">
+      <c r="G51" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="12">
+      <c r="H51" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="12">
+      <c r="I51" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1720,10 +1738,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="12" t="s">
+      <c r="J53" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1767,28 +1785,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="12">
+      <c r="A55" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="12">
+      <c r="B55" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="12">
+      <c r="C55" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="12">
+      <c r="E55" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="12">
+      <c r="F55" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="12">
+      <c r="G55" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="12">
+      <c r="H55" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1813,28 +1831,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="12">
+      <c r="B57" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="12">
+      <c r="C57" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="12">
+      <c r="D57" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="12">
+      <c r="E57" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="12">
+      <c r="F57" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="12">
+      <c r="G57" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="12">
+      <c r="H57" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="12">
+      <c r="I57" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1893,10 +1911,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="12" t="s">
+      <c r="J59" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1940,28 +1958,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="12">
+      <c r="A61" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s" s="12">
+      <c r="C61" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1986,28 +2004,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="12">
+      <c r="B63" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="12">
+      <c r="C63" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="12">
+      <c r="D63" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="12">
+      <c r="E63" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="12">
+      <c r="F63" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="12">
+      <c r="G63" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="12">
+      <c r="H63" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="12">
+      <c r="I63" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2327,10 +2345,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="12" t="s">
+      <c r="J74" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2374,28 +2392,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="12">
+      <c r="A76" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="12">
+      <c r="B76" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="12">
+      <c r="C76" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="12">
+      <c r="E76" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="12">
+      <c r="F76" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="12">
+      <c r="G76" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="12">
+      <c r="H76" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2420,28 +2438,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="12">
+      <c r="B78" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="12">
+      <c r="C78" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="12">
+      <c r="D78" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="12">
+      <c r="E78" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="12">
+      <c r="F78" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="12">
+      <c r="G78" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="12">
+      <c r="H78" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="12">
+      <c r="I78" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2500,10 +2518,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="12" t="s">
+      <c r="J80" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2547,28 +2565,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="12">
+      <c r="A82" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="12">
+      <c r="B82" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="12">
+      <c r="C82" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="12">
+      <c r="E82" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="12">
+      <c r="F82" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="12">
+      <c r="G82" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="12">
+      <c r="H82" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2593,28 +2611,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="12">
+      <c r="B84" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="12">
+      <c r="C84" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="12">
+      <c r="D84" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="12">
+      <c r="E84" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="12">
+      <c r="F84" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="12">
+      <c r="G84" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="12">
+      <c r="H84" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="12">
+      <c r="I84" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2876,10 +2894,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="12" t="s">
+      <c r="J93" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2923,28 +2941,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="12">
+      <c r="A95" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="12">
+      <c r="B95" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="12">
+      <c r="C95" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="12">
+      <c r="E95" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="12">
+      <c r="F95" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="12">
+      <c r="G95" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="12">
+      <c r="H95" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2969,28 +2987,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="12">
+      <c r="B97" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="12">
+      <c r="C97" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="12">
+      <c r="D97" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="12">
+      <c r="E97" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="12">
+      <c r="F97" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="12">
+      <c r="G97" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="12">
+      <c r="H97" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="12">
+      <c r="I97" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3049,10 +3067,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="12" t="s">
+      <c r="J99" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3096,28 +3114,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="12">
+      <c r="A101" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="12">
+      <c r="B101" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="12">
+      <c r="C101" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="12">
+      <c r="E101" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="12">
+      <c r="F101" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="12">
+      <c r="G101" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="12">
+      <c r="H101" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3142,28 +3160,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="12">
+      <c r="B103" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="12">
+      <c r="C103" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="12">
+      <c r="D103" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="12">
+      <c r="E103" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="12">
+      <c r="F103" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="12">
+      <c r="G103" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="12">
+      <c r="H103" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="12">
+      <c r="I103" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3251,10 +3269,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="12" t="s">
+      <c r="J106" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3298,28 +3316,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="12">
+      <c r="A108" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="12">
+      <c r="B108" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="12">
+      <c r="C108" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="12">
+      <c r="E108" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="12">
+      <c r="F108" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="12">
+      <c r="G108" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="12">
+      <c r="H108" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3344,28 +3362,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="12">
+      <c r="B110" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="12">
+      <c r="C110" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="12">
+      <c r="D110" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="12">
+      <c r="E110" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="12">
+      <c r="F110" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="12">
+      <c r="G110" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="12">
+      <c r="H110" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="12">
+      <c r="I110" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3424,10 +3442,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="12" t="s">
+      <c r="J112" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3471,28 +3489,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="12">
+      <c r="A114" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="12">
+      <c r="B114" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="12">
+      <c r="C114" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="12">
+      <c r="E114" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="12">
+      <c r="F114" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="12">
+      <c r="G114" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="12">
+      <c r="H114" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3517,28 +3535,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="12">
+      <c r="B116" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="12">
+      <c r="C116" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="12">
+      <c r="D116" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="12">
+      <c r="E116" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="12">
+      <c r="F116" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="12">
+      <c r="G116" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="12">
+      <c r="H116" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="12">
+      <c r="I116" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3887,10 +3905,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="12" t="s">
+      <c r="J128" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3934,28 +3952,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="12">
+      <c r="A130" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="12">
+      <c r="B130" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="12">
+      <c r="C130" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="12">
+      <c r="E130" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="12">
+      <c r="F130" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="12">
+      <c r="G130" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="12">
+      <c r="H130" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3980,28 +3998,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="12">
+      <c r="B132" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="12">
+      <c r="C132" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="12">
+      <c r="D132" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="12">
+      <c r="E132" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="12">
+      <c r="F132" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="12">
+      <c r="G132" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="12">
+      <c r="H132" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="12">
+      <c r="I132" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4060,10 +4078,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="12" t="s">
+      <c r="J134" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4107,28 +4125,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="12">
+      <c r="A136" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="12">
+      <c r="B136" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="12">
+      <c r="C136" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="12">
+      <c r="E136" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="12">
+      <c r="F136" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="12">
+      <c r="G136" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="12">
+      <c r="H136" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4153,28 +4171,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="12">
+      <c r="B138" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="12">
+      <c r="C138" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="12">
+      <c r="D138" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="12">
+      <c r="E138" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="12">
+      <c r="F138" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="12">
+      <c r="G138" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="12">
+      <c r="H138" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="12">
+      <c r="I138" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4233,10 +4251,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="12" t="s">
+      <c r="J140" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4280,28 +4298,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="12">
+      <c r="A142" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="12">
+      <c r="B142" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="12">
+      <c r="C142" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="12">
+      <c r="E142" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="12">
+      <c r="F142" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="12">
+      <c r="G142" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="12">
+      <c r="H142" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4326,28 +4344,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="12">
+      <c r="B144" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="12">
+      <c r="C144" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="12">
+      <c r="D144" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="12">
+      <c r="E144" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="12">
+      <c r="F144" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="12">
+      <c r="G144" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="12">
+      <c r="H144" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="12">
+      <c r="I144" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4435,10 +4453,10 @@
       <c r="I147">
         <f>((C147-C146)^2+(D147- D146)^2)^.5</f>
       </c>
-      <c r="J147" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K147" s="12" t="s">
+      <c r="J147" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L147" t="n">
@@ -4482,28 +4500,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="12">
+      <c r="A149" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B149" t="s" s="12">
+      <c r="B149" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C149" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D149" t="s" s="12">
+      <c r="C149" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E149" t="s" s="12">
+      <c r="E149" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F149" t="s" s="12">
+      <c r="F149" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G149" t="s" s="12">
+      <c r="G149" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H149" t="s" s="12">
+      <c r="H149" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4528,28 +4546,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="B151" t="s" s="12">
+      <c r="B151" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C151" t="s" s="12">
+      <c r="C151" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D151" t="s" s="12">
+      <c r="D151" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E151" t="s" s="12">
+      <c r="E151" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F151" t="s" s="12">
+      <c r="F151" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G151" t="s" s="12">
+      <c r="G151" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H151" t="s" s="12">
+      <c r="H151" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I151" t="s" s="12">
+      <c r="I151" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4898,10 +4916,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="12" t="s">
+      <c r="J163" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4945,28 +4963,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="12">
+      <c r="A165" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="12">
+      <c r="B165" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="12">
+      <c r="C165" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="12">
+      <c r="E165" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="12">
+      <c r="F165" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="12">
+      <c r="G165" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="12">
+      <c r="H165" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4991,28 +5009,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="12">
+      <c r="B167" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="12">
+      <c r="C167" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="12">
+      <c r="D167" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="12">
+      <c r="E167" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="12">
+      <c r="F167" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="12">
+      <c r="G167" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="12">
+      <c r="H167" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="12">
+      <c r="I167" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5071,10 +5089,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="12" t="s">
+      <c r="J169" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5118,28 +5136,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="12">
+      <c r="A171" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="12">
+      <c r="B171" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="12">
+      <c r="C171" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="12">
+      <c r="E171" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="12">
+      <c r="F171" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="12">
+      <c r="G171" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="12">
+      <c r="H171" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5164,28 +5182,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="12">
+      <c r="B173" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="12">
+      <c r="C173" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="12">
+      <c r="D173" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="12">
+      <c r="E173" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="12">
+      <c r="F173" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="12">
+      <c r="G173" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="12">
+      <c r="H173" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="12">
+      <c r="I173" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5244,10 +5262,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="12" t="s">
+      <c r="J175" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5291,28 +5309,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="12">
+      <c r="A177" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="12">
+      <c r="B177" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="12">
+      <c r="C177" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="12">
+      <c r="E177" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="12">
+      <c r="F177" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="12">
+      <c r="G177" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="12">
+      <c r="H177" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5337,28 +5355,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="12">
+      <c r="B179" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="12">
+      <c r="C179" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="12">
+      <c r="D179" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="12">
+      <c r="E179" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="12">
+      <c r="F179" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="12">
+      <c r="G179" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="12">
+      <c r="H179" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="12">
+      <c r="I179" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5417,10 +5435,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="12" t="s">
+      <c r="J181" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5464,28 +5482,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="12">
+      <c r="A183" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="12">
+      <c r="B183" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="12">
+      <c r="C183" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="12">
+      <c r="E183" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="12">
+      <c r="F183" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="12">
+      <c r="G183" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="12">
+      <c r="H183" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5510,28 +5528,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="12">
+      <c r="B185" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="12">
+      <c r="C185" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="12">
+      <c r="D185" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="12">
+      <c r="E185" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="12">
+      <c r="F185" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="12">
+      <c r="G185" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="12">
+      <c r="H185" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="12">
+      <c r="I185" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5590,10 +5608,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="12" t="s">
+      <c r="J187" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5637,28 +5655,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="12">
+      <c r="A189" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="12">
+      <c r="B189" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="12">
+      <c r="C189" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="12">
+      <c r="E189" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="12">
+      <c r="F189" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="12">
+      <c r="G189" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="12">
+      <c r="H189" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5683,28 +5701,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="12">
+      <c r="B191" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="12">
+      <c r="C191" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="12">
+      <c r="D191" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="12">
+      <c r="E191" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="12">
+      <c r="F191" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="12">
+      <c r="G191" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="12">
+      <c r="H191" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="12">
+      <c r="I191" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6082,10 +6100,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="12" t="s">
+      <c r="J204" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6129,28 +6147,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="12">
+      <c r="A206" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="12">
+      <c r="B206" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="12">
+      <c r="C206" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="12">
+      <c r="E206" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="12">
+      <c r="F206" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="12">
+      <c r="G206" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="12">
+      <c r="H206" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6175,28 +6193,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="12">
+      <c r="B208" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="12">
+      <c r="C208" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="12">
+      <c r="D208" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="12">
+      <c r="E208" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="12">
+      <c r="F208" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="12">
+      <c r="G208" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="12">
+      <c r="H208" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="12">
+      <c r="I208" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6255,10 +6273,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="12" t="s">
+      <c r="J210" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6302,28 +6320,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="12">
+      <c r="A212" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="12">
+      <c r="B212" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="12">
+      <c r="C212" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="12">
+      <c r="E212" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="12">
+      <c r="F212" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="12">
+      <c r="G212" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="12">
+      <c r="H212" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6348,28 +6366,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="12">
+      <c r="B214" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="12">
+      <c r="C214" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="12">
+      <c r="D214" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="12">
+      <c r="E214" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="12">
+      <c r="F214" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="12">
+      <c r="G214" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="12">
+      <c r="H214" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="12">
+      <c r="I214" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6428,10 +6446,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="12" t="s">
+      <c r="J216" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6475,28 +6493,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="12">
+      <c r="A218" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="12">
+      <c r="B218" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="12">
+      <c r="C218" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="12">
+      <c r="E218" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="12">
+      <c r="F218" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="12">
+      <c r="G218" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="12">
+      <c r="H218" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6521,28 +6539,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="12">
+      <c r="B220" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="12">
+      <c r="C220" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="12">
+      <c r="D220" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="12">
+      <c r="E220" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="12">
+      <c r="F220" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="12">
+      <c r="G220" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="12">
+      <c r="H220" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="12">
+      <c r="I220" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6601,10 +6619,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="12" t="s">
+      <c r="J222" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6648,28 +6666,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="12">
+      <c r="A224" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="12">
+      <c r="B224" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="12">
+      <c r="C224" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="12">
+      <c r="E224" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="12">
+      <c r="F224" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="12">
+      <c r="G224" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="12">
+      <c r="H224" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6694,28 +6712,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="12">
+      <c r="B226" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="12">
+      <c r="C226" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="12">
+      <c r="D226" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="12">
+      <c r="E226" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="12">
+      <c r="F226" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="12">
+      <c r="G226" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="12">
+      <c r="H226" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="12">
+      <c r="I226" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7035,10 +7053,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="12" t="s">
+      <c r="J237" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7082,28 +7100,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="12">
+      <c r="A239" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="12">
+      <c r="B239" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="12">
+      <c r="C239" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="12">
+      <c r="E239" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="12">
+      <c r="F239" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="12">
+      <c r="G239" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="12">
+      <c r="H239" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7128,28 +7146,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="12">
+      <c r="B241" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="12">
+      <c r="C241" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="12">
+      <c r="D241" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="12">
+      <c r="E241" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="12">
+      <c r="F241" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="12">
+      <c r="G241" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="12">
+      <c r="H241" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="12">
+      <c r="I241" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7208,10 +7226,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="12" t="s">
+      <c r="J243" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7255,28 +7273,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="12">
+      <c r="A245" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="12">
+      <c r="B245" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="12">
+      <c r="C245" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="12">
+      <c r="E245" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="12">
+      <c r="F245" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="12">
+      <c r="G245" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="12">
+      <c r="H245" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7301,28 +7319,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="12">
+      <c r="B247" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="12">
+      <c r="C247" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="12">
+      <c r="D247" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="12">
+      <c r="E247" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="12">
+      <c r="F247" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="12">
+      <c r="G247" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="12">
+      <c r="H247" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="12">
+      <c r="I247" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7381,10 +7399,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="12" t="s">
+      <c r="J249" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7428,28 +7446,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="12">
+      <c r="A251" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="12">
+      <c r="B251" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="12">
+      <c r="C251" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="12">
+      <c r="E251" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="12">
+      <c r="F251" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="12">
+      <c r="G251" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="12">
+      <c r="H251" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7474,28 +7492,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="12">
+      <c r="B253" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="12">
+      <c r="C253" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="12">
+      <c r="D253" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="12">
+      <c r="E253" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="12">
+      <c r="F253" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="12">
+      <c r="G253" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="12">
+      <c r="H253" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="12">
+      <c r="I253" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7554,10 +7572,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="12" t="s">
+      <c r="J255" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7601,28 +7619,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="12">
+      <c r="A257" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="12">
+      <c r="B257" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="12">
+      <c r="C257" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="12">
+      <c r="E257" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="12">
+      <c r="F257" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="12">
+      <c r="G257" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="12">
+      <c r="H257" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7647,28 +7665,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="12">
+      <c r="B259" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="12">
+      <c r="C259" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="12">
+      <c r="D259" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="12">
+      <c r="E259" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="12">
+      <c r="F259" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="12">
+      <c r="G259" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="12">
+      <c r="H259" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="12">
+      <c r="I259" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7727,10 +7745,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="12" t="s">
+      <c r="J261" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
